--- a/CO_sample.xlsx
+++ b/CO_sample.xlsx
@@ -483,14 +483,14 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>43087</v>
+        <v>43070</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2017121896</t>
+          <t>2017120153</t>
         </is>
       </c>
       <c r="D2">
@@ -513,29 +513,29 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12811</t>
+          <t>12457</t>
         </is>
       </c>
       <c r="K2">
-        <v>20171218</v>
+        <v>20171201</v>
       </c>
       <c r="L2">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="M2">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0000001089</t>
+          <t>0000001446</t>
         </is>
       </c>
       <c r="O2">
-        <v>2900</v>
+        <v>3530</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0000000517</t>
+          <t>0000000260</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2017-12-19 오후 1:26:04</t>
+          <t>2017-12-05 오후 5:20:11</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -563,14 +563,14 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>43087</v>
+        <v>43075</v>
       </c>
       <c r="B3">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20171218134</t>
+          <t>2017120669</t>
         </is>
       </c>
       <c r="D3">
@@ -593,29 +593,29 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13397</t>
+          <t>10326</t>
         </is>
       </c>
       <c r="K3">
-        <v>20171218</v>
+        <v>20171206</v>
       </c>
       <c r="L3">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="M3">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0000001089</t>
+          <t>0000001446</t>
         </is>
       </c>
       <c r="O3">
-        <v>2900</v>
+        <v>3530</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -632,7 +632,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2017-12-19 오후 1:26:07</t>
+          <t>2017-12-12 오후 2:56:58</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -643,14 +643,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>43087</v>
+        <v>43075</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20171218293</t>
+          <t>20171206170</t>
         </is>
       </c>
       <c r="D4">
@@ -661,41 +661,41 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>40100</t>
+          <t>40401</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>상품매출</t>
+          <t>제품매출</t>
         </is>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14610</t>
+          <t>14542</t>
         </is>
       </c>
       <c r="K4">
-        <v>20171218</v>
+        <v>20171206</v>
       </c>
       <c r="L4">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="M4">
         <v>1400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0000001483</t>
+          <t>0000001446</t>
         </is>
       </c>
       <c r="O4">
-        <v>3600</v>
+        <v>3530</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:49:36</t>
+          <t>2017-12-12 오후 2:57:04</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -723,86 +723,76 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>43088</v>
+        <v>43087</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2017121930</t>
+          <t>2017121896</t>
         </is>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>40700</t>
+          <t>40401</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>교육수입</t>
+          <t>제품매출</t>
         </is>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>374710</v>
+        <v>70000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>00002</t>
+          <t>12811</t>
         </is>
       </c>
       <c r="K5">
-        <v>20171219</v>
+        <v>20171218</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M5">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0000001089</t>
+        </is>
+      </c>
+      <c r="O5">
+        <v>2900</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>매  출</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>0000000517</t>
         </is>
       </c>
-      <c r="O5">
-        <v>4100</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>수  금</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0000000517</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2017-12-29 오후 5:01:37</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0000000361</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 6:08:26</t>
+          <t>2017-12-19 오후 1:26:04</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -813,14 +803,14 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>43089</v>
+        <v>43087</v>
       </c>
       <c r="B6">
-        <v>384</v>
+        <v>262</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20171220384</t>
+          <t>20171218262</t>
         </is>
       </c>
       <c r="D6">
@@ -843,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>90000</v>
+        <v>2563991</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>80778</t>
+          <t>80070</t>
         </is>
       </c>
       <c r="K6">
-        <v>20171220</v>
+        <v>20171218</v>
       </c>
       <c r="L6">
-        <v>385</v>
+        <v>261</v>
       </c>
       <c r="M6">
         <v>1400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0000001483</t>
+          <t>0000001446</t>
         </is>
       </c>
       <c r="O6">
@@ -882,7 +872,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:05</t>
+          <t>2017-12-19 오후 1:26:18</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -896,11 +886,11 @@
         <v>43089</v>
       </c>
       <c r="B7">
-        <v>433</v>
+        <v>59</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20171220433</t>
+          <t>2017122059</t>
         </is>
       </c>
       <c r="D7">
@@ -923,18 +913,18 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>08411</t>
+          <t>87521</t>
         </is>
       </c>
       <c r="K7">
         <v>20171220</v>
       </c>
       <c r="L7">
-        <v>434</v>
+        <v>62</v>
       </c>
       <c r="M7">
         <v>1400</v>
@@ -957,12 +947,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0000000517</t>
+          <t>0000000260</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:08</t>
+          <t>2017-12-20 오후 3:36:20</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -976,11 +966,11 @@
         <v>43089</v>
       </c>
       <c r="B8">
-        <v>578</v>
+        <v>323</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20171220578</t>
+          <t>20171220323</t>
         </is>
       </c>
       <c r="D8">
@@ -1003,18 +993,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09136</t>
+          <t>15347</t>
         </is>
       </c>
       <c r="K8">
         <v>20171220</v>
       </c>
       <c r="L8">
-        <v>579</v>
+        <v>324</v>
       </c>
       <c r="M8">
         <v>1400</v>
@@ -1042,7 +1032,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:22</t>
+          <t>2017-12-26 오후 1:38:01</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1056,11 +1046,11 @@
         <v>43089</v>
       </c>
       <c r="B9">
-        <v>683</v>
+        <v>486</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20171220683</t>
+          <t>20171220486</t>
         </is>
       </c>
       <c r="D9">
@@ -1087,14 +1077,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>03187</t>
+          <t>81066</t>
         </is>
       </c>
       <c r="K9">
         <v>20171220</v>
       </c>
       <c r="L9">
-        <v>684</v>
+        <v>487</v>
       </c>
       <c r="M9">
         <v>1400</v>
@@ -1122,7 +1112,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:30</t>
+          <t>2017-12-26 오후 1:38:12</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1136,11 +1126,11 @@
         <v>43089</v>
       </c>
       <c r="B10">
-        <v>707</v>
+        <v>555</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20171220707</t>
+          <t>20171220555</t>
         </is>
       </c>
       <c r="D10">
@@ -1167,14 +1157,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>81542</t>
+          <t>10580</t>
         </is>
       </c>
       <c r="K10">
         <v>20171220</v>
       </c>
       <c r="L10">
-        <v>708</v>
+        <v>556</v>
       </c>
       <c r="M10">
         <v>1400</v>
@@ -1202,7 +1192,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:32</t>
+          <t>2017-12-26 오후 1:38:20</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1216,11 +1206,11 @@
         <v>43089</v>
       </c>
       <c r="B11">
-        <v>813</v>
+        <v>681</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20171220813</t>
+          <t>20171220681</t>
         </is>
       </c>
       <c r="D11">
@@ -1243,18 +1233,18 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10838</t>
+          <t>12317</t>
         </is>
       </c>
       <c r="K11">
         <v>20171220</v>
       </c>
       <c r="L11">
-        <v>814</v>
+        <v>682</v>
       </c>
       <c r="M11">
         <v>1400</v>
@@ -1282,7 +1272,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:41</t>
+          <t>2017-12-26 오후 1:38:30</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1296,11 +1286,11 @@
         <v>43089</v>
       </c>
       <c r="B12">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20171220814</t>
+          <t>20171220848</t>
         </is>
       </c>
       <c r="D12">
@@ -1323,18 +1313,18 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12981</t>
+          <t>15329</t>
         </is>
       </c>
       <c r="K12">
         <v>20171220</v>
       </c>
       <c r="L12">
-        <v>815</v>
+        <v>849</v>
       </c>
       <c r="M12">
         <v>1400</v>
@@ -1362,7 +1352,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:41</t>
+          <t>2017-12-26 오후 1:38:44</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1376,11 +1366,11 @@
         <v>43089</v>
       </c>
       <c r="B13">
-        <v>1047</v>
+        <v>916</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>201712201047</t>
+          <t>20171220916</t>
         </is>
       </c>
       <c r="D13">
@@ -1403,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12434</t>
+          <t>04874</t>
         </is>
       </c>
       <c r="K13">
         <v>20171220</v>
       </c>
       <c r="L13">
-        <v>1048</v>
+        <v>917</v>
       </c>
       <c r="M13">
         <v>1400</v>
@@ -1442,7 +1432,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:58</t>
+          <t>2017-12-26 오후 1:38:48</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1456,11 +1446,11 @@
         <v>43089</v>
       </c>
       <c r="B14">
-        <v>1496</v>
+        <v>1400</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>201712201496</t>
+          <t>201712201400</t>
         </is>
       </c>
       <c r="D14">
@@ -1483,18 +1473,18 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>70000</v>
+        <v>136363</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12321</t>
+          <t>11745</t>
         </is>
       </c>
       <c r="K14">
         <v>20171220</v>
       </c>
       <c r="L14">
-        <v>1497</v>
+        <v>1401</v>
       </c>
       <c r="M14">
         <v>1400</v>
@@ -1522,7 +1512,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:39:34</t>
+          <t>2017-12-26 오후 1:39:26</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1536,11 +1526,11 @@
         <v>43089</v>
       </c>
       <c r="B15">
-        <v>1713</v>
+        <v>1440</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>201712201713</t>
+          <t>201712201440</t>
         </is>
       </c>
       <c r="D15">
@@ -1563,18 +1553,18 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>06302</t>
+          <t>82663</t>
         </is>
       </c>
       <c r="K15">
         <v>20171220</v>
       </c>
       <c r="L15">
-        <v>1714</v>
+        <v>1441</v>
       </c>
       <c r="M15">
         <v>1400</v>
@@ -1602,7 +1592,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:39:50</t>
+          <t>2017-12-26 오후 1:39:29</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -1616,11 +1606,11 @@
         <v>43089</v>
       </c>
       <c r="B16">
-        <v>1983</v>
+        <v>1681</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>201712201983</t>
+          <t>201712201681</t>
         </is>
       </c>
       <c r="D16">
@@ -1643,18 +1633,18 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>07299</t>
+          <t>14560</t>
         </is>
       </c>
       <c r="K16">
         <v>20171220</v>
       </c>
       <c r="L16">
-        <v>1984</v>
+        <v>1682</v>
       </c>
       <c r="M16">
         <v>1400</v>
@@ -1682,7 +1672,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:10</t>
+          <t>2017-12-26 오후 1:39:47</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1696,11 +1686,11 @@
         <v>43089</v>
       </c>
       <c r="B17">
-        <v>1988</v>
+        <v>1918</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>201712201988</t>
+          <t>201712201918</t>
         </is>
       </c>
       <c r="D17">
@@ -1727,14 +1717,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13697</t>
+          <t>13251</t>
         </is>
       </c>
       <c r="K17">
         <v>20171220</v>
       </c>
       <c r="L17">
-        <v>1989</v>
+        <v>1919</v>
       </c>
       <c r="M17">
         <v>1400</v>
@@ -1762,7 +1752,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:11</t>
+          <t>2017-12-26 오후 1:40:05</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1776,11 +1766,11 @@
         <v>43089</v>
       </c>
       <c r="B18">
-        <v>2045</v>
+        <v>2029</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>201712202045</t>
+          <t>201712202029</t>
         </is>
       </c>
       <c r="D18">
@@ -1807,14 +1797,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>03193</t>
+          <t>88364</t>
         </is>
       </c>
       <c r="K18">
         <v>20171220</v>
       </c>
       <c r="L18">
-        <v>2046</v>
+        <v>2030</v>
       </c>
       <c r="M18">
         <v>1400</v>
@@ -1842,7 +1832,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:15</t>
+          <t>2017-12-26 오후 1:40:14</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -1856,11 +1846,11 @@
         <v>43089</v>
       </c>
       <c r="B19">
-        <v>2139</v>
+        <v>2082</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>201712202139</t>
+          <t>201712202082</t>
         </is>
       </c>
       <c r="D19">
@@ -1887,14 +1877,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05984</t>
+          <t>88049</t>
         </is>
       </c>
       <c r="K19">
         <v>20171220</v>
       </c>
       <c r="L19">
-        <v>2140</v>
+        <v>2083</v>
       </c>
       <c r="M19">
         <v>1400</v>
@@ -1922,7 +1912,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:24</t>
+          <t>2017-12-26 오후 1:40:18</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -1936,11 +1926,11 @@
         <v>43089</v>
       </c>
       <c r="B20">
-        <v>2432</v>
+        <v>2117</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>201712202432</t>
+          <t>201712202117</t>
         </is>
       </c>
       <c r="D20">
@@ -1963,18 +1953,18 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>84321</t>
+          <t>83684</t>
         </is>
       </c>
       <c r="K20">
         <v>20171220</v>
       </c>
       <c r="L20">
-        <v>2433</v>
+        <v>2118</v>
       </c>
       <c r="M20">
         <v>1400</v>
@@ -2002,7 +1992,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:48</t>
+          <t>2017-12-26 오후 1:40:21</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2016,11 +2006,11 @@
         <v>43089</v>
       </c>
       <c r="B21">
-        <v>2505</v>
+        <v>2266</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>201712202505</t>
+          <t>201712202266</t>
         </is>
       </c>
       <c r="D21">
@@ -2047,14 +2037,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>84482</t>
+          <t>83930</t>
         </is>
       </c>
       <c r="K21">
         <v>20171220</v>
       </c>
       <c r="L21">
-        <v>2506</v>
+        <v>2267</v>
       </c>
       <c r="M21">
         <v>1400</v>
@@ -2082,7 +2072,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:55</t>
+          <t>2017-12-26 오후 1:40:35</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2096,11 +2086,11 @@
         <v>43089</v>
       </c>
       <c r="B22">
-        <v>2766</v>
+        <v>2301</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>201712202766</t>
+          <t>201712202301</t>
         </is>
       </c>
       <c r="D22">
@@ -2127,14 +2117,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>83246</t>
+          <t>84028</t>
         </is>
       </c>
       <c r="K22">
         <v>20171220</v>
       </c>
       <c r="L22">
-        <v>2767</v>
+        <v>2302</v>
       </c>
       <c r="M22">
         <v>1400</v>
@@ -2162,7 +2152,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:16</t>
+          <t>2017-12-26 오후 1:40:38</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2176,11 +2166,11 @@
         <v>43089</v>
       </c>
       <c r="B23">
-        <v>2820</v>
+        <v>2316</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>201712202820</t>
+          <t>201712202316</t>
         </is>
       </c>
       <c r="D23">
@@ -2203,18 +2193,18 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12734</t>
+          <t>09920</t>
         </is>
       </c>
       <c r="K23">
         <v>20171220</v>
       </c>
       <c r="L23">
-        <v>2821</v>
+        <v>2317</v>
       </c>
       <c r="M23">
         <v>1400</v>
@@ -2242,7 +2232,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:21</t>
+          <t>2017-12-26 오후 1:40:39</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2256,11 +2246,11 @@
         <v>43089</v>
       </c>
       <c r="B24">
-        <v>2835</v>
+        <v>2560</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>201712202835</t>
+          <t>201712202560</t>
         </is>
       </c>
       <c r="D24">
@@ -2283,18 +2273,18 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>12071</t>
+          <t>11503</t>
         </is>
       </c>
       <c r="K24">
         <v>20171220</v>
       </c>
       <c r="L24">
-        <v>2836</v>
+        <v>2561</v>
       </c>
       <c r="M24">
         <v>1400</v>
@@ -2322,7 +2312,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:22</t>
+          <t>2017-12-26 오후 1:40:59</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -2336,11 +2326,11 @@
         <v>43089</v>
       </c>
       <c r="B25">
-        <v>2884</v>
+        <v>2706</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>201712202884</t>
+          <t>201712202706</t>
         </is>
       </c>
       <c r="D25">
@@ -2363,18 +2353,18 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12178</t>
+          <t>12200</t>
         </is>
       </c>
       <c r="K25">
         <v>20171220</v>
       </c>
       <c r="L25">
-        <v>2885</v>
+        <v>2707</v>
       </c>
       <c r="M25">
         <v>1400</v>
@@ -2402,7 +2392,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:27</t>
+          <t>2017-12-26 오후 1:41:11</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2416,11 +2406,11 @@
         <v>43089</v>
       </c>
       <c r="B26">
-        <v>2922</v>
+        <v>2913</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>201712202922</t>
+          <t>201712202913</t>
         </is>
       </c>
       <c r="D26">
@@ -2443,18 +2433,18 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>03406</t>
+          <t>10511</t>
         </is>
       </c>
       <c r="K26">
         <v>20171220</v>
       </c>
       <c r="L26">
-        <v>2923</v>
+        <v>2914</v>
       </c>
       <c r="M26">
         <v>1400</v>
@@ -2482,7 +2472,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:31</t>
+          <t>2017-12-26 오후 1:41:30</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2496,11 +2486,11 @@
         <v>43095</v>
       </c>
       <c r="B27">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20171226344</t>
+          <t>20171226159</t>
         </is>
       </c>
       <c r="D27">
@@ -2523,18 +2513,18 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11747</t>
+          <t>89131</t>
         </is>
       </c>
       <c r="K27">
         <v>20171226</v>
       </c>
       <c r="L27">
-        <v>351</v>
+        <v>166</v>
       </c>
       <c r="M27">
         <v>3600</v>
@@ -2562,7 +2552,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:42:10</t>
+          <t>2017-12-28 오전 9:20:14</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2576,11 +2566,11 @@
         <v>43095</v>
       </c>
       <c r="B28">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20171226419</t>
+          <t>20171226263</t>
         </is>
       </c>
       <c r="D28">
@@ -2603,18 +2593,18 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>14127</t>
+          <t>05456</t>
         </is>
       </c>
       <c r="K28">
         <v>20171226</v>
       </c>
       <c r="L28">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="M28">
         <v>3600</v>
@@ -2642,7 +2632,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:42:17</t>
+          <t>2017-12-29 오후 3:42:02</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2656,11 +2646,11 @@
         <v>43095</v>
       </c>
       <c r="B29">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20171226455</t>
+          <t>20171226490</t>
         </is>
       </c>
       <c r="D29">
@@ -2683,18 +2673,18 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>14749</t>
+          <t>15306</t>
         </is>
       </c>
       <c r="K29">
         <v>20171226</v>
       </c>
       <c r="L29">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="M29">
         <v>3600</v>
@@ -2722,7 +2712,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:42:20</t>
+          <t>2017-12-29 오후 3:42:22</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2736,11 +2726,11 @@
         <v>43095</v>
       </c>
       <c r="B30">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20171226615</t>
+          <t>20171226535</t>
         </is>
       </c>
       <c r="D30">
@@ -2763,18 +2753,18 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>8900</v>
+        <v>30000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10749</t>
+          <t>89149</t>
         </is>
       </c>
       <c r="K30">
         <v>20171226</v>
       </c>
       <c r="L30">
-        <v>623</v>
+        <v>542</v>
       </c>
       <c r="M30">
         <v>3600</v>
@@ -2797,12 +2787,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0000000498</t>
+          <t>0000000517</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2018-01-03 오후 7:01:21</t>
+          <t>2017-12-29 오후 3:42:26</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2816,11 +2806,11 @@
         <v>43098</v>
       </c>
       <c r="B31">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2017122939</t>
+          <t>201712292</t>
         </is>
       </c>
       <c r="D31">
@@ -2843,29 +2833,29 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>200000</v>
+        <v>900000</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13756</t>
+          <t>82373</t>
         </is>
       </c>
       <c r="K31">
         <v>20171229</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0000001089</t>
+          <t>0000000517</t>
         </is>
       </c>
       <c r="O31">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="P31">
         <v>3</v>
@@ -2877,12 +2867,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0000000260</t>
+          <t>0000000517</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2017-12-29 오전 10:04:53</t>
+          <t>2017-12-29 오전 9:22:14</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">

--- a/CO_sample.xlsx
+++ b/CO_sample.xlsx
@@ -483,14 +483,14 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2017120153</t>
+          <t>2017120582</t>
         </is>
       </c>
       <c r="D2">
@@ -517,25 +517,25 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12457</t>
+          <t>13733</t>
         </is>
       </c>
       <c r="K2">
-        <v>20171201</v>
+        <v>20171205</v>
       </c>
       <c r="L2">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="M2">
         <v>1400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0000001446</t>
+          <t>0000001483</t>
         </is>
       </c>
       <c r="O2">
-        <v>3530</v>
+        <v>3100</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0000000260</t>
+          <t>0000000517</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2017-12-05 오후 5:20:11</t>
+          <t>2017-12-12 오후 2:56:38</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -566,11 +566,11 @@
         <v>43075</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2017120669</t>
+          <t>20171206207</t>
         </is>
       </c>
       <c r="D3">
@@ -597,14 +597,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10326</t>
+          <t>82123</t>
         </is>
       </c>
       <c r="K3">
         <v>20171206</v>
       </c>
       <c r="L3">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="M3">
         <v>1400</v>
@@ -632,7 +632,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2017-12-12 오후 2:56:58</t>
+          <t>2017-12-12 오후 2:57:06</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -643,14 +643,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>43075</v>
+        <v>43084</v>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20171206170</t>
+          <t>2017121539</t>
         </is>
       </c>
       <c r="D4">
@@ -673,18 +673,18 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60000</v>
+        <v>583000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14542</t>
+          <t>03445</t>
         </is>
       </c>
       <c r="K4">
-        <v>20171206</v>
+        <v>20171215</v>
       </c>
       <c r="L4">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="M4">
         <v>1400</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="O4">
-        <v>3530</v>
+        <v>3410</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2017-12-12 오후 2:57:04</t>
+          <t>2017-12-20 오전 11:02:06</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -726,63 +726,73 @@
         <v>43087</v>
       </c>
       <c r="B5">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2017121896</t>
+          <t>20171218284</t>
         </is>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>40401</t>
+          <t>40700</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>제품매출</t>
+          <t>교육수입</t>
         </is>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>70000</v>
+        <v>262960</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12811</t>
+          <t>15380</t>
         </is>
       </c>
       <c r="K5">
         <v>20171218</v>
       </c>
       <c r="L5">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="M5">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0000001089</t>
+          <t>0000000517</t>
         </is>
       </c>
       <c r="O5">
-        <v>2900</v>
+        <v>4150</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>매  출</t>
+          <t>수  금</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0000000517</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2017-12-21 오후 4:16:33</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -792,7 +802,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2017-12-19 오후 1:26:04</t>
+          <t>2017-12-21 오후 5:23:34</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -803,14 +813,14 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>43087</v>
+        <v>43089</v>
       </c>
       <c r="B6">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20171218262</t>
+          <t>20171220161</t>
         </is>
       </c>
       <c r="D6">
@@ -833,25 +843,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2563991</v>
+        <v>60000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>80070</t>
+          <t>07661</t>
         </is>
       </c>
       <c r="K6">
-        <v>20171218</v>
+        <v>20171220</v>
       </c>
       <c r="L6">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="M6">
         <v>1400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0000001446</t>
+          <t>0000001483</t>
         </is>
       </c>
       <c r="O6">
@@ -872,7 +882,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2017-12-19 오후 1:26:18</t>
+          <t>2017-12-21 오전 9:00:33</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -886,11 +896,11 @@
         <v>43089</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2017122059</t>
+          <t>20171220371</t>
         </is>
       </c>
       <c r="D7">
@@ -913,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>87521</t>
+          <t>87162</t>
         </is>
       </c>
       <c r="K7">
         <v>20171220</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="M7">
         <v>1400</v>
@@ -947,12 +957,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0000000260</t>
+          <t>0000000517</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2017-12-20 오후 3:36:20</t>
+          <t>2017-12-26 오후 1:38:04</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -966,11 +976,11 @@
         <v>43089</v>
       </c>
       <c r="B8">
-        <v>323</v>
+        <v>524</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20171220323</t>
+          <t>20171220524</t>
         </is>
       </c>
       <c r="D8">
@@ -993,18 +1003,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>15347</t>
+          <t>81075</t>
         </is>
       </c>
       <c r="K8">
         <v>20171220</v>
       </c>
       <c r="L8">
-        <v>324</v>
+        <v>525</v>
       </c>
       <c r="M8">
         <v>1400</v>
@@ -1032,7 +1042,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:01</t>
+          <t>2017-12-26 오후 1:38:17</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1046,11 +1056,11 @@
         <v>43089</v>
       </c>
       <c r="B9">
-        <v>486</v>
+        <v>686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20171220486</t>
+          <t>20171220686</t>
         </is>
       </c>
       <c r="D9">
@@ -1073,18 +1083,18 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>81066</t>
+          <t>00492</t>
         </is>
       </c>
       <c r="K9">
         <v>20171220</v>
       </c>
       <c r="L9">
-        <v>487</v>
+        <v>687</v>
       </c>
       <c r="M9">
         <v>1400</v>
@@ -1112,7 +1122,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:12</t>
+          <t>2017-12-26 오후 1:38:30</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1126,11 +1136,11 @@
         <v>43089</v>
       </c>
       <c r="B10">
-        <v>555</v>
+        <v>862</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20171220555</t>
+          <t>20171220862</t>
         </is>
       </c>
       <c r="D10">
@@ -1153,18 +1163,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10580</t>
+          <t>84064</t>
         </is>
       </c>
       <c r="K10">
         <v>20171220</v>
       </c>
       <c r="L10">
-        <v>556</v>
+        <v>863</v>
       </c>
       <c r="M10">
         <v>1400</v>
@@ -1192,7 +1202,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:20</t>
+          <t>2017-12-26 오후 1:38:45</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1206,11 +1216,11 @@
         <v>43089</v>
       </c>
       <c r="B11">
-        <v>681</v>
+        <v>924</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20171220681</t>
+          <t>20171220924</t>
         </is>
       </c>
       <c r="D11">
@@ -1233,18 +1243,18 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12317</t>
+          <t>12919</t>
         </is>
       </c>
       <c r="K11">
         <v>20171220</v>
       </c>
       <c r="L11">
-        <v>682</v>
+        <v>925</v>
       </c>
       <c r="M11">
         <v>1400</v>
@@ -1272,7 +1282,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:30</t>
+          <t>2017-12-26 오후 1:38:49</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1286,11 +1296,11 @@
         <v>43089</v>
       </c>
       <c r="B12">
-        <v>848</v>
+        <v>992</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20171220848</t>
+          <t>20171220992</t>
         </is>
       </c>
       <c r="D12">
@@ -1313,18 +1323,18 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15329</t>
+          <t>11645</t>
         </is>
       </c>
       <c r="K12">
         <v>20171220</v>
       </c>
       <c r="L12">
-        <v>849</v>
+        <v>993</v>
       </c>
       <c r="M12">
         <v>1400</v>
@@ -1352,7 +1362,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:44</t>
+          <t>2017-12-26 오후 1:38:54</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1366,11 +1376,11 @@
         <v>43089</v>
       </c>
       <c r="B13">
-        <v>916</v>
+        <v>999</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20171220916</t>
+          <t>20171220999</t>
         </is>
       </c>
       <c r="D13">
@@ -1397,14 +1407,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>04874</t>
+          <t>13137</t>
         </is>
       </c>
       <c r="K13">
         <v>20171220</v>
       </c>
       <c r="L13">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="M13">
         <v>1400</v>
@@ -1432,7 +1442,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:38:48</t>
+          <t>2017-12-26 오후 1:38:55</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1446,11 +1456,11 @@
         <v>43089</v>
       </c>
       <c r="B14">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>201712201400</t>
+          <t>201712201392</t>
         </is>
       </c>
       <c r="D14">
@@ -1473,18 +1483,18 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>136363</v>
+        <v>100000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11745</t>
+          <t>12486</t>
         </is>
       </c>
       <c r="K14">
         <v>20171220</v>
       </c>
       <c r="L14">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="M14">
         <v>1400</v>
@@ -1526,11 +1536,11 @@
         <v>43089</v>
       </c>
       <c r="B15">
-        <v>1440</v>
+        <v>2055</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>201712201440</t>
+          <t>201712202055</t>
         </is>
       </c>
       <c r="D15">
@@ -1553,18 +1563,18 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>82663</t>
+          <t>06927</t>
         </is>
       </c>
       <c r="K15">
         <v>20171220</v>
       </c>
       <c r="L15">
-        <v>1441</v>
+        <v>2056</v>
       </c>
       <c r="M15">
         <v>1400</v>
@@ -1592,7 +1602,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:39:29</t>
+          <t>2017-12-26 오후 1:40:16</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -1606,11 +1616,11 @@
         <v>43089</v>
       </c>
       <c r="B16">
-        <v>1681</v>
+        <v>2208</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>201712201681</t>
+          <t>201712202208</t>
         </is>
       </c>
       <c r="D16">
@@ -1633,18 +1643,18 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>14560</t>
+          <t>83814</t>
         </is>
       </c>
       <c r="K16">
         <v>20171220</v>
       </c>
       <c r="L16">
-        <v>1682</v>
+        <v>2209</v>
       </c>
       <c r="M16">
         <v>1400</v>
@@ -1672,7 +1682,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:39:47</t>
+          <t>2017-12-26 오후 1:40:30</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1686,11 +1696,11 @@
         <v>43089</v>
       </c>
       <c r="B17">
-        <v>1918</v>
+        <v>2234</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>201712201918</t>
+          <t>201712202234</t>
         </is>
       </c>
       <c r="D17">
@@ -1713,18 +1723,18 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13251</t>
+          <t>83860</t>
         </is>
       </c>
       <c r="K17">
         <v>20171220</v>
       </c>
       <c r="L17">
-        <v>1919</v>
+        <v>2235</v>
       </c>
       <c r="M17">
         <v>1400</v>
@@ -1752,7 +1762,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:05</t>
+          <t>2017-12-26 오후 1:40:33</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1766,11 +1776,11 @@
         <v>43089</v>
       </c>
       <c r="B18">
-        <v>2029</v>
+        <v>2367</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>201712202029</t>
+          <t>201712202367</t>
         </is>
       </c>
       <c r="D18">
@@ -1793,18 +1803,18 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>88364</t>
+          <t>14175</t>
         </is>
       </c>
       <c r="K18">
         <v>20171220</v>
       </c>
       <c r="L18">
-        <v>2030</v>
+        <v>2368</v>
       </c>
       <c r="M18">
         <v>1400</v>
@@ -1832,7 +1842,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:14</t>
+          <t>2017-12-26 오후 1:40:43</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -1846,11 +1856,11 @@
         <v>43089</v>
       </c>
       <c r="B19">
-        <v>2082</v>
+        <v>2397</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>201712202082</t>
+          <t>201712202397</t>
         </is>
       </c>
       <c r="D19">
@@ -1873,18 +1883,18 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>50000</v>
+        <v>230000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>88049</t>
+          <t>14887</t>
         </is>
       </c>
       <c r="K19">
         <v>20171220</v>
       </c>
       <c r="L19">
-        <v>2083</v>
+        <v>2398</v>
       </c>
       <c r="M19">
         <v>1400</v>
@@ -1912,7 +1922,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:18</t>
+          <t>2017-12-26 오후 1:40:45</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -1926,11 +1936,11 @@
         <v>43089</v>
       </c>
       <c r="B20">
-        <v>2117</v>
+        <v>2641</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>201712202117</t>
+          <t>201712202641</t>
         </is>
       </c>
       <c r="D20">
@@ -1953,18 +1963,18 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>83684</t>
+          <t>84954</t>
         </is>
       </c>
       <c r="K20">
         <v>20171220</v>
       </c>
       <c r="L20">
-        <v>2118</v>
+        <v>2642</v>
       </c>
       <c r="M20">
         <v>1400</v>
@@ -1992,7 +2002,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:21</t>
+          <t>2017-12-26 오후 1:41:06</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2006,11 +2016,11 @@
         <v>43089</v>
       </c>
       <c r="B21">
-        <v>2266</v>
+        <v>2642</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>201712202266</t>
+          <t>201712202642</t>
         </is>
       </c>
       <c r="D21">
@@ -2033,18 +2043,18 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>83930</t>
+          <t>12092</t>
         </is>
       </c>
       <c r="K21">
         <v>20171220</v>
       </c>
       <c r="L21">
-        <v>2267</v>
+        <v>2643</v>
       </c>
       <c r="M21">
         <v>1400</v>
@@ -2072,7 +2082,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:35</t>
+          <t>2017-12-26 오후 1:41:06</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2086,11 +2096,11 @@
         <v>43089</v>
       </c>
       <c r="B22">
-        <v>2301</v>
+        <v>2797</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>201712202301</t>
+          <t>201712202797</t>
         </is>
       </c>
       <c r="D22">
@@ -2113,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>84028</t>
+          <t>04588</t>
         </is>
       </c>
       <c r="K22">
         <v>20171220</v>
       </c>
       <c r="L22">
-        <v>2302</v>
+        <v>2798</v>
       </c>
       <c r="M22">
         <v>1400</v>
@@ -2152,7 +2162,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:38</t>
+          <t>2017-12-26 오후 1:41:19</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2166,11 +2176,11 @@
         <v>43089</v>
       </c>
       <c r="B23">
-        <v>2316</v>
+        <v>2883</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>201712202316</t>
+          <t>201712202883</t>
         </is>
       </c>
       <c r="D23">
@@ -2197,14 +2207,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>09920</t>
+          <t>10783</t>
         </is>
       </c>
       <c r="K23">
         <v>20171220</v>
       </c>
       <c r="L23">
-        <v>2317</v>
+        <v>2884</v>
       </c>
       <c r="M23">
         <v>1400</v>
@@ -2232,7 +2242,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:39</t>
+          <t>2017-12-26 오후 1:41:27</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2246,11 +2256,11 @@
         <v>43089</v>
       </c>
       <c r="B24">
-        <v>2560</v>
+        <v>2957</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>201712202560</t>
+          <t>201712202957</t>
         </is>
       </c>
       <c r="D24">
@@ -2273,18 +2283,18 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11503</t>
+          <t>85770</t>
         </is>
       </c>
       <c r="K24">
         <v>20171220</v>
       </c>
       <c r="L24">
-        <v>2561</v>
+        <v>2958</v>
       </c>
       <c r="M24">
         <v>1400</v>
@@ -2312,7 +2322,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:40:59</t>
+          <t>2017-12-26 오후 1:41:35</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -2326,11 +2336,11 @@
         <v>43089</v>
       </c>
       <c r="B25">
-        <v>2706</v>
+        <v>3117</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>201712202706</t>
+          <t>201712203117</t>
         </is>
       </c>
       <c r="D25">
@@ -2357,14 +2367,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12200</t>
+          <t>88719</t>
         </is>
       </c>
       <c r="K25">
         <v>20171220</v>
       </c>
       <c r="L25">
-        <v>2707</v>
+        <v>3118</v>
       </c>
       <c r="M25">
         <v>1400</v>
@@ -2392,7 +2402,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:11</t>
+          <t>2017-12-26 오후 1:41:49</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2406,11 +2416,11 @@
         <v>43089</v>
       </c>
       <c r="B26">
-        <v>2913</v>
+        <v>3160</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>201712202913</t>
+          <t>201712203160</t>
         </is>
       </c>
       <c r="D26">
@@ -2437,14 +2447,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10511</t>
+          <t>13891</t>
         </is>
       </c>
       <c r="K26">
         <v>20171220</v>
       </c>
       <c r="L26">
-        <v>2914</v>
+        <v>3161</v>
       </c>
       <c r="M26">
         <v>1400</v>
@@ -2472,7 +2482,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2017-12-26 오후 1:41:30</t>
+          <t>2017-12-26 오후 1:41:53</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2486,11 +2496,11 @@
         <v>43095</v>
       </c>
       <c r="B27">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20171226159</t>
+          <t>20171226126</t>
         </is>
       </c>
       <c r="D27">
@@ -2517,14 +2527,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>89131</t>
+          <t>13663</t>
         </is>
       </c>
       <c r="K27">
         <v>20171226</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="M27">
         <v>3600</v>
@@ -2552,7 +2562,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2017-12-28 오전 9:20:14</t>
+          <t>2017-12-28 오전 9:20:12</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2566,11 +2576,11 @@
         <v>43095</v>
       </c>
       <c r="B28">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20171226263</t>
+          <t>20171226235</t>
         </is>
       </c>
       <c r="D28">
@@ -2593,18 +2603,18 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>05456</t>
+          <t>11522</t>
         </is>
       </c>
       <c r="K28">
         <v>20171226</v>
       </c>
       <c r="L28">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="M28">
         <v>3600</v>
@@ -2632,7 +2642,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:42:02</t>
+          <t>2017-12-29 오후 3:42:00</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2646,11 +2656,11 @@
         <v>43095</v>
       </c>
       <c r="B29">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20171226490</t>
+          <t>20171226438</t>
         </is>
       </c>
       <c r="D29">
@@ -2673,18 +2683,18 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15306</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="K29">
         <v>20171226</v>
       </c>
       <c r="L29">
-        <v>497</v>
+        <v>445</v>
       </c>
       <c r="M29">
         <v>3600</v>
@@ -2712,7 +2722,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:42:22</t>
+          <t>2017-12-29 오후 3:42:19</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2726,11 +2736,11 @@
         <v>43095</v>
       </c>
       <c r="B30">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20171226535</t>
+          <t>20171226456</t>
         </is>
       </c>
       <c r="D30">
@@ -2753,18 +2763,18 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>89149</t>
+          <t>14753</t>
         </is>
       </c>
       <c r="K30">
         <v>20171226</v>
       </c>
       <c r="L30">
-        <v>542</v>
+        <v>463</v>
       </c>
       <c r="M30">
         <v>3600</v>
@@ -2792,7 +2802,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2017-12-29 오후 3:42:26</t>
+          <t>2017-12-29 오후 3:42:20</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2806,45 +2816,45 @@
         <v>43098</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>201712292</t>
+          <t>2017122999</t>
         </is>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>40401</t>
+          <t>40700</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>제품매출</t>
+          <t>교육수입</t>
         </is>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>900000</v>
+        <v>600000</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>82373</t>
+          <t>12608</t>
         </is>
       </c>
       <c r="K31">
         <v>20171229</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="M31">
         <v>1400</v>
@@ -2855,24 +2865,34 @@
         </is>
       </c>
       <c r="O31">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>매  출</t>
+          <t>수  금</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0000000517</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2017-12-29 오후 4:48:31</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0000000517</t>
+          <t>0000000361</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2017-12-29 오전 9:22:14</t>
+          <t>2017-12-29 오후 6:08:31</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
